--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>POO</t>
   </si>
@@ -39,19 +39,25 @@
     <t>MARTES</t>
   </si>
   <si>
-    <t>DOMINGO</t>
-  </si>
-  <si>
-    <t>MIERCOLES</t>
-  </si>
-  <si>
-    <t>JUEVES</t>
-  </si>
-  <si>
-    <t>VIERNES</t>
-  </si>
-  <si>
-    <t>SABADOS</t>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,29 +134,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -453,25 +479,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="9">
         <v>44991</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
@@ -480,166 +509,173 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>44991</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="15">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="13">
         <v>44991</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="14">
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>44991</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="9">
         <v>44992</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>44998</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.66666666666666663</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>44998</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>44998</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.70833333333333337</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="13">
         <v>44998</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="13">
         <v>44999</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -648,6 +684,11 @@
     <sortCondition ref="B1:B10"/>
     <sortCondition ref="C1:C10"/>
   </sortState>
+  <conditionalFormatting sqref="F1:F7">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>TEXT(F1,"dddd")=TEXT(TODAY(),"dddd")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>POO</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>Sábado</t>
+  </si>
+  <si>
+    <t>1ra semana</t>
+  </si>
+  <si>
+    <t>2da semana</t>
+  </si>
+  <si>
+    <t>3ra semana</t>
+  </si>
+  <si>
+    <t>4ta semana</t>
+  </si>
+  <si>
+    <t>VIDEOS</t>
+  </si>
+  <si>
+    <t>EJERCICIOS</t>
   </si>
 </sst>
 </file>
@@ -157,7 +175,65 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -479,18 +555,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -509,9 +586,21 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="17">
+        <v>44962</v>
+      </c>
+      <c r="K1" s="17">
+        <f>J1+6</f>
+        <v>44968</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -530,9 +619,22 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="17">
+        <f>J1+7</f>
+        <v>44969</v>
+      </c>
+      <c r="K2" s="17">
+        <f>K1+7</f>
+        <v>44975</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -551,9 +653,22 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J4" si="0">J2+7</f>
+        <v>44976</v>
+      </c>
+      <c r="K3" s="17">
+        <f t="shared" ref="K3:K4" si="1">K2+7</f>
+        <v>44982</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -572,9 +687,22 @@
       <c r="G4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
+        <v>44983</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="1"/>
+        <v>44989</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -595,7 +723,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -616,7 +744,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -637,7 +765,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -651,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
@@ -665,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -685,8 +813,13 @@
     <sortCondition ref="C1:C10"/>
   </sortState>
   <conditionalFormatting sqref="F1:F7">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>TEXT(F1,"dddd")=TEXT(TODAY(),"dddd")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I4">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>TEXT(F1,"dddd")=TEXT(TODAY(),"dddd")</formula>
+      <formula>IF(AND(TODAY()&gt;=J1,TODAY()&lt;=K1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>POO</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>EJERCICIOS</t>
+  </si>
+  <si>
+    <t>BDD/PRO</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,34 +154,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -192,64 +320,6 @@
       <font>
         <b/>
         <i/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="5" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -558,253 +628,290 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="6">
         <v>44991</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="25">
         <v>44962</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="25">
         <f>J1+6</f>
         <v>44968</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="9">
         <v>44991</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="27">
         <f>J1+7</f>
         <v>44969</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="27">
         <f>K1+7</f>
         <v>44975</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="9">
         <v>44991</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="27">
         <f t="shared" ref="J3:J4" si="0">J2+7</f>
         <v>44976</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="27">
         <f t="shared" ref="K3:K4" si="1">K2+7</f>
         <v>44982</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>44991</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="29">
         <f t="shared" si="0"/>
         <v>44983</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="29">
         <f t="shared" si="1"/>
         <v>44989</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="13">
         <v>44992</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44998</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="18">
+        <v>44998</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="33">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
-        <v>44998</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44998</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <v>44998</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="34" t="s">
         <v>5</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="34">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="18">
         <v>44998</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
+      <c r="I9" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="22">
         <v>44999</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="23">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="41" t="s">
         <v>6</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -813,12 +920,12 @@
     <sortCondition ref="C1:C10"/>
   </sortState>
   <conditionalFormatting sqref="F1:F7">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>TEXT(F1,"dddd")=TEXT(TODAY(),"dddd")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(AND(TODAY()&gt;=J1,TODAY()&lt;=K1),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,110 +639,77 @@
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B2" s="6">
         <v>44991</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C2" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J2" s="25">
         <v>44962</v>
       </c>
-      <c r="K1" s="25">
-        <f>J1+6</f>
+      <c r="K2" s="25">
+        <f>J2+6</f>
         <v>44968</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9">
-        <v>44991</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="27">
-        <f>J1+7</f>
-        <v>44969</v>
-      </c>
-      <c r="K2" s="27">
-        <f>K1+7</f>
-        <v>44975</v>
-      </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="9">
         <v>44991</v>
       </c>
-      <c r="C3" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="27">
-        <f t="shared" ref="J3:J4" si="0">J2+7</f>
-        <v>44976</v>
+        <f>J2+7</f>
+        <v>44969</v>
       </c>
       <c r="K3" s="27">
-        <f t="shared" ref="K3:K4" si="1">K2+7</f>
-        <v>44982</v>
+        <f>K2+7</f>
+        <v>44975</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="9">
         <v>44991</v>
@@ -750,167 +717,201 @@
       <c r="C4" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" ref="J4:J5" si="0">J3+7</f>
+        <v>44976</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" ref="K4:K5" si="1">K3+7</f>
+        <v>44982</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44991</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J5" s="29">
         <f t="shared" si="0"/>
         <v>44983</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K5" s="29">
         <f t="shared" si="1"/>
         <v>44989</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L5" s="35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="13">
         <v>44992</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C6" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G6" s="34" t="s">
         <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="15">
-        <v>44998</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>0</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15">
+        <v>44998</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B8" s="18">
         <v>44998</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C8" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9">
-        <v>44998</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
         <v>44998</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18">
+        <v>44998</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B11" s="22">
         <v>44999</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C11" s="23">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K11" s="35">
         <v>1</v>
       </c>
     </row>
@@ -919,14 +920,14 @@
     <sortCondition ref="B1:B10"/>
     <sortCondition ref="C1:C10"/>
   </sortState>
-  <conditionalFormatting sqref="F1:F7">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TEXT(F1,"dddd")=TEXT(TODAY(),"dddd")</formula>
+      <formula>TEXT(F2,"dddd")=TEXT(TODAY(),"dddd")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I4">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(AND(TODAY()&gt;=J1,TODAY()&lt;=K1),TRUE,FALSE)</formula>
+      <formula>IF(AND(TODAY()&gt;=J2,TODAY()&lt;=K2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="14940" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +889,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -628,7 +628,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>14</v>
@@ -843,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -628,7 +628,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="14940" windowHeight="4845"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Crono" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -628,7 +626,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>17</v>
@@ -921,40 +919,16 @@
     <sortCondition ref="C1:C10"/>
   </sortState>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>TEXT(F2,"dddd")=TEXT(TODAY(),"dddd")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF(AND(TODAY()&gt;=J2,TODAY()&lt;=K2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="14940" windowHeight="4845"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>POO</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>pendiente</t>
   </si>
 </sst>
 </file>
@@ -623,10 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +891,10 @@
         <v>21</v>
       </c>
       <c r="K10" s="34">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>POO</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Video</t>
-  </si>
-  <si>
-    <t>pendiente</t>
   </si>
 </sst>
 </file>
@@ -630,7 +627,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -891,10 +888,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="34">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -865,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>POO</t>
   </si>
@@ -77,16 +77,13 @@
   </si>
   <si>
     <t>BDD/PRO</t>
-  </si>
-  <si>
-    <t>Video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +126,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -144,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -232,11 +243,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -267,9 +414,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,11 +441,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -626,8 +825,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,13 +848,13 @@
       <c r="C2" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -668,7 +867,7 @@
         <f>J2+6</f>
         <v>44968</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -682,13 +881,13 @@
       <c r="C3" s="10">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="26" t="s">
@@ -702,7 +901,7 @@
         <f>K2+7</f>
         <v>44975</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -716,13 +915,13 @@
       <c r="C4" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="26" t="s">
@@ -736,7 +935,7 @@
         <f t="shared" ref="K4:K5" si="1">K3+7</f>
         <v>44982</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -750,13 +949,13 @@
       <c r="C5" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="28" t="s">
@@ -770,7 +969,7 @@
         <f t="shared" si="1"/>
         <v>44989</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -784,13 +983,13 @@
       <c r="C6" s="14">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="31" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="1"/>
@@ -805,13 +1004,13 @@
       <c r="C7" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="31" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="31" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
@@ -826,23 +1025,27 @@
       <c r="C8" s="19">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="33">
-        <v>4</v>
+      <c r="J8" s="42">
+        <v>7</v>
+      </c>
+      <c r="K8" s="43">
+        <v>12</v>
+      </c>
+      <c r="L8" s="48">
+        <f t="shared" ref="L8" si="2">J8/K8</f>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -855,17 +1058,21 @@
       <c r="C9" s="11">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="34">
+      <c r="J9" s="39">
         <v>6</v>
+      </c>
+      <c r="K9" s="40">
+        <v>9</v>
+      </c>
+      <c r="L9" s="49">
+        <f>J9/K9</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -878,17 +1085,21 @@
       <c r="C10" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="34">
+      <c r="J10" s="39">
         <v>6</v>
+      </c>
+      <c r="K10" s="40">
+        <v>20</v>
+      </c>
+      <c r="L10" s="49">
+        <f t="shared" ref="L10:L11" si="3">J10/K10</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -901,17 +1112,21 @@
       <c r="C11" s="23">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="J11" s="46">
         <v>4</v>
+      </c>
+      <c r="K11" s="47">
+        <v>13</v>
+      </c>
+      <c r="L11" s="50">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
       </c>
     </row>
   </sheetData>
@@ -920,13 +1135,25 @@
     <sortCondition ref="C1:C10"/>
   </sortState>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>TEXT(F2,"dddd")=TEXT(TODAY(),"dddd")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(AND(TODAY()&gt;=J2,TODAY()&lt;=K2),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -476,31 +476,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -826,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,14 +1095,14 @@
         <v>4</v>
       </c>
       <c r="J11" s="46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" s="47">
         <v>13</v>
       </c>
       <c r="L11" s="50">
         <f t="shared" si="3"/>
-        <v>0.30769230769230771</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
   </sheetData>
@@ -1135,12 +1111,12 @@
     <sortCondition ref="C1:C10"/>
   </sortState>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>TEXT(F2,"dddd")=TEXT(TODAY(),"dddd")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>IF(AND(TODAY()&gt;=J2,TODAY()&lt;=K2),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,14 +1041,14 @@
         <v>1</v>
       </c>
       <c r="J9" s="39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" s="40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="49">
         <f>J9/K9</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,14 +1068,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K10" s="40">
         <v>20</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L11" si="3">J10/K10</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="14940" windowHeight="4845"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Crono" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -802,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,14 +1014,14 @@
         <v>3</v>
       </c>
       <c r="J8" s="42">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K8" s="43">
         <v>12</v>
       </c>
       <c r="L8" s="48">
         <f t="shared" ref="L8" si="2">J8/K8</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,14 +1068,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="39">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K10" s="40">
         <v>20</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L11" si="3">J10/K10</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,14 +1095,14 @@
         <v>4</v>
       </c>
       <c r="J11" s="46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K11" s="47">
         <v>13</v>
       </c>
       <c r="L11" s="50">
         <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
   </sheetData>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -802,7 +802,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,14 +1068,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="40">
         <v>20</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L11" si="3">J10/K10</f>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1095,14 +1095,14 @@
         <v>4</v>
       </c>
       <c r="J11" s="46">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K11" s="47">
         <v>13</v>
       </c>
       <c r="L11" s="50">
         <f t="shared" si="3"/>
-        <v>0.76923076923076927</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -469,6 +469,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1064,18 +1067,19 @@
       <c r="D10" s="35" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="51"/>
       <c r="I10" s="44" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="39">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" s="40">
         <v>20</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L11" si="3">J10/K10</f>
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>POO</t>
   </si>
@@ -76,13 +76,16 @@
     <t>EJERCICIOS</t>
   </si>
   <si>
-    <t>BDD/PRO</t>
+    <t>MDS/POO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -474,6 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,17 +809,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -867,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>15</v>
@@ -901,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>16</v>
@@ -969,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -990,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1107,6 +1116,32 @@
       <c r="L11" s="50">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="52">
+        <v>44991</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="52">
+        <v>44992</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -1114,6 +1149,10 @@
     <sortCondition ref="B1:B10"/>
     <sortCondition ref="C1:C10"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
   <conditionalFormatting sqref="F2:F8">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>TEXT(F2,"dddd")=TEXT(TODAY(),"dddd")</formula>

--- a/(EndGame)/(AGENDA).xlsx
+++ b/(EndGame)/(AGENDA).xlsx
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -477,10 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +812,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,14 +1081,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="39">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" s="40">
         <v>20</v>
       </c>
       <c r="L10" s="49">
         <f t="shared" ref="L10:L11" si="3">J10/K10</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,12 +1122,12 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="53">
         <v>44991</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="52">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1135,12 +1135,12 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="53">
         <v>44992</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="52">
         <v>0.33333333333333331</v>
       </c>
     </row>
